--- a/akkalearn/cardgame.xlsx
+++ b/akkalearn/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20865" windowHeight="7575" activeTab="1"/>
+    <workbookView windowWidth="22823" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="206">
   <si>
     <t>规则</t>
   </si>
@@ -615,10 +615,10 @@
     <t>我方打出此牌，对手点数最大的牌随机丢弃1张，对方再抽取3张牌</t>
   </si>
   <si>
-    <t>我方打出此牌，本回合，每丢弃一张牌，对手受到10点伤害</t>
-  </si>
-  <si>
-    <t>我方打出此牌，下回合可以选择从弃牌堆选择1张加入手牌</t>
+    <t>我方打出此牌，本回合，双方每丢弃一张牌，对手受到10点伤害</t>
+  </si>
+  <si>
+    <t>我方打出此牌，下回合开始可以选择从弃牌堆选择1张加入手牌</t>
   </si>
   <si>
     <t>我方打出此牌，本回合的任何弃牌可以选择下回合获得到手牌</t>
@@ -633,7 +633,7 @@
     <t>我方打出此牌，所出的牌下回合可选择再次回到手牌，回到手牌时对对手造成一次伤害</t>
   </si>
   <si>
-    <t>此牌在对手手牌中无法弃掉或打出，每回合开始从弃牌堆，牌堆，或我方手牌加入对手手牌</t>
+    <t>对方打出或弃掉此牌，对方受到100伤害，对手获得此牌时，点数为1，只能单牌打出，回合开始时，从牌堆。弃牌堆进入对方手牌</t>
   </si>
 </sst>
 </file>
@@ -641,10 +641,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -656,7 +656,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,14 +693,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -686,15 +700,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,14 +716,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,17 +738,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,17 +754,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,14 +777,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,25 +808,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,13 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,19 +880,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,79 +922,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +952,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,21 +999,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1032,17 +1017,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,6 +1061,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1082,20 +1085,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,10 +1107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,133 +1119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1610,9 +1610,9 @@
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1892,16 +1892,16 @@
   <sheetPr/>
   <dimension ref="A2:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="6.63333333333333" customWidth="1"/>
-    <col min="4" max="4" width="6.88333333333333" customWidth="1"/>
-    <col min="5" max="5" width="9.11666666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.7" customWidth="1"/>
+    <col min="3" max="3" width="6.62962962962963" customWidth="1"/>
+    <col min="4" max="4" width="6.87962962962963" customWidth="1"/>
+    <col min="5" max="5" width="9.12037037037037" customWidth="1"/>
+    <col min="6" max="6" width="9.7037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -4325,7 +4325,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/akkalearn/cardgame.xlsx
+++ b/akkalearn/cardgame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22823" windowHeight="8520" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础规则" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>开始双方有1000hp，hp为0则游戏失败</t>
   </si>
   <si>
-    <t>双方在所有英雄中轮流选择1个英雄出现在本局游戏中，直至选出10位不同的出场英雄，然后双方在10个英雄中随机抽取两个英雄选择1个作为首发英雄，</t>
-  </si>
-  <si>
-    <t>把场上的英雄行动卡和2套通用卡，42张洗牌，双方回合每人9张牌</t>
+    <t>双方在所有英雄中轮流选择1个英雄出现在本局游戏中，直至选出10位不同的出场英雄，然后双方在10个英雄中随机抽取两个英雄选择1个作为首发英雄，在选英雄时先选的一方后抽取英雄</t>
+  </si>
+  <si>
+    <t>把场上的英雄行动卡和2套通用卡，42张洗牌，双方回合开始每人发9张牌</t>
   </si>
   <si>
     <t>第一回合双方使用hp暗拍先手牌权，相同的随机一方获得，获得时扣除对应hp</t>
@@ -84,7 +84,7 @@
     <t>每回合结束增加5召唤点数，弃掉的每张牌也会增加1点此点数，到达一定值会在回合后让双方再次抽取英雄，同样是抽取2个选1个，下回合后手则先抽取英雄</t>
   </si>
   <si>
-    <t>第一次召唤10点，第二次20点，第三次50点，第四次100点</t>
+    <t>第一次召唤10点，第二次25点，第三次50点，第四次100点</t>
   </si>
   <si>
     <t>双方获得新英雄时，每回合开始获得手牌数+3，并且新英雄的行动牌均加入牌堆切洗</t>
@@ -114,7 +114,7 @@
     <t>升下级所需经验</t>
   </si>
   <si>
-    <t>英雄有基本的攻防属性，防御可以减少对手每次造成的伤害，攻击可以增加给对手的伤害，升级有时会增加攻击或防御属性</t>
+    <t>英雄有基本的攻防属性，防御可以减少对手每次造成的伤害，攻击可以增加给对手的每次伤害，升级有时会增加英雄的攻击或防御属性</t>
   </si>
   <si>
     <t>牌触发效果条件大概有以下</t>
@@ -405,13 +405,13 @@
     <t>对手打出此牌，本次游戏看牌数+2，本回合看牌数暂时+3</t>
   </si>
   <si>
-    <t>打出此牌，我方看到的对手的牌本回合不发动任何效果</t>
+    <t>打出此牌，我方看到的对手的牌本回合不发动任何效果，当作通用牌使用</t>
   </si>
   <si>
     <t>打出此牌，本回合对手展示所有牌，并同时造成牌数*10的伤害</t>
   </si>
   <si>
-    <t>任意一方打出此牌后，3回合内可以看到对手所有牌</t>
+    <t>任意一方打出此牌后，3回合内我方可以看到对手所有牌</t>
   </si>
   <si>
     <t>特点：修改对手牌，交换牌</t>
@@ -426,13 +426,13 @@
     <t>我方打出此牌，对手随机丢弃一张牌并把此牌放入手牌</t>
   </si>
   <si>
-    <t>我方使用此牌打出组牌时，可以利用对手1张牌当作X点牌使用，但是会触发对手的出牌效果</t>
+    <t>我方使用此牌打出组牌时，可以利用对手1张牌当作X点牌使用，但是会相当于对手出那1张牌</t>
   </si>
   <si>
     <t>我方打出此牌时，可以选择0-2张手牌与对手随机牌交换</t>
   </si>
   <si>
-    <t>我方打出此牌，可以理由对手2张牌当作X点使用，但是会触发对手出牌效果</t>
+    <t>我方打出此牌，可以利用对手2张牌当作X点使用，但是会相当于对手出那2张牌</t>
   </si>
   <si>
     <t>任一方打出此牌，对手随机丢弃一张牌并把此牌放入手牌，并且此牌点数修改为1</t>
@@ -450,10 +450,10 @@
     <t>特点：额外出牌，复制对手牌</t>
   </si>
   <si>
-    <t>己方出牌时，打出3张以上相同点数牌时可以附带此牌</t>
-  </si>
-  <si>
-    <t>己方出牌时，打出顺子时可以额外附带此牌一起出</t>
+    <t>己方出牌时，打出3张以上相同点数牌时，此牌会附带打出</t>
+  </si>
+  <si>
+    <t>己方出牌时，打出顺子时可以附带此牌一起出</t>
   </si>
   <si>
     <t>己方持有时，点数会变为对己方造成伤害的牌组的最大点数</t>
@@ -462,13 +462,13 @@
     <t>己方打出此牌的同时，出牌不为顺子和单牌时，可以额外再出1张牌</t>
   </si>
   <si>
-    <t>己方打出此牌，获得对手随机两张牌的复制，但点数固定为7</t>
-  </si>
-  <si>
-    <t>己方打出此牌，复制对手一张点数最大的随机牌</t>
-  </si>
-  <si>
-    <t>己方打出此牌，复制对手所有7以上的牌</t>
+    <t>己方打出此牌，获得对手随机两张牌的复制，点数修改为8</t>
+  </si>
+  <si>
+    <t>己方打出此牌，复制对手一张点数最大的随机牌，点数修改为9</t>
+  </si>
+  <si>
+    <t>己方打出此牌，复制对手所有7以上的牌，点数修改为10</t>
   </si>
   <si>
     <t>己方打出此牌时，所有复制牌可以选择随之打出</t>
@@ -492,22 +492,22 @@
     <t>我方打出此牌，本回合所有手牌点数+1，10点会变为X点</t>
   </si>
   <si>
-    <t>我方持有时，此牌至多可当作两张5使用</t>
+    <t>我方持有时，此牌至多可当作2张通常牌使用</t>
   </si>
   <si>
     <t>打出此牌后，炸弹的要求牌数-1</t>
   </si>
   <si>
-    <t>我方持有时，此牌至多可当作3张7使用</t>
-  </si>
-  <si>
-    <t>我方打出此牌，本回合我方炸弹伤害*2</t>
-  </si>
-  <si>
-    <t>我方出牌带有此牌的炸弹不可再反击</t>
-  </si>
-  <si>
-    <t>我方持有时，此牌变为2张通常的X牌</t>
+    <t>我方持有时，此牌至多可当作3张通常牌使用</t>
+  </si>
+  <si>
+    <t>我方打出此牌，本回合我方炸弹造成伤害*2</t>
+  </si>
+  <si>
+    <t>我方出牌带有此牌的炸弹不可反击对抗</t>
+  </si>
+  <si>
+    <t>我方持有时，此牌变为3张通常的X牌</t>
   </si>
   <si>
     <t>特点：连续攻击增强，对抗优势</t>
@@ -552,22 +552,22 @@
     <t>我方打出此牌，加入一张通常6的复制</t>
   </si>
   <si>
-    <t>我方打出此牌，此次对抗我方收到伤害的20%反击给对手</t>
-  </si>
-  <si>
-    <t>我方打出此牌，获得一张同名复制，点数+3，如果10点，则不再复制</t>
+    <t>我方打出此牌，此次对抗对我方伤害的20%反击给对手</t>
+  </si>
+  <si>
+    <t>我方打出此牌，获得一张同名复制，点数额外+3，最大到10，如果10点，则不再复制</t>
   </si>
   <si>
     <t xml:space="preserve">我方获得此牌时，同时获得7点 8点 9点 三张通用牌 </t>
   </si>
   <si>
-    <t>获得此牌时，获得2张复制的7点通常牌</t>
-  </si>
-  <si>
-    <t>我方打出此牌，本回合我方收到伤害的20%反击给对手</t>
-  </si>
-  <si>
-    <t>我方持有此牌时，可以用相同牌</t>
+    <t>我方获得此牌时，获得2张复制的7点通常牌</t>
+  </si>
+  <si>
+    <t>我方打出此牌，本回合针对我方伤害的50%反击给对手</t>
+  </si>
+  <si>
+    <t>我方打出此牌，复制上一次我方出牌发动的效果</t>
   </si>
   <si>
     <t>我方打出此牌后，本回合受到任何伤害由对方承受</t>
@@ -597,7 +597,7 @@
     <t>我方打出此牌，对手炸弹要求牌数+1</t>
   </si>
   <si>
-    <t>对手打出此牌，本回合，其他手牌点数-2，最小1点，X牌变为9</t>
+    <t>对手打出此牌，本回合，其他手牌点数-1，最小1点，X牌变为10</t>
   </si>
   <si>
     <t>我方打出此牌，对手所有牌变为相同点数的通用牌的复制</t>
@@ -633,7 +633,7 @@
     <t>我方打出此牌，所出的牌下回合可选择再次回到手牌，回到手牌时对对手造成一次伤害</t>
   </si>
   <si>
-    <t>对方打出或弃掉此牌，对方受到100伤害，对手获得此牌时，点数为1，只能单牌打出，回合开始时，从牌堆。弃牌堆进入对方手牌</t>
+    <t>对方打出或弃掉此牌，对方受到80伤害，对手获得此牌时，点数为1，只能单牌打出，回合开始时，从牌堆。弃牌堆进入对方手牌</t>
   </si>
 </sst>
 </file>
@@ -641,9 +641,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -656,7 +656,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,8 +669,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,25 +707,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,8 +745,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,14 +769,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -754,22 +776,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -778,22 +794,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,19 +808,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,91 +874,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,13 +904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,43 +916,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,6 +999,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1013,50 +1022,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,7 +1044,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1099,6 +1084,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1107,145 +1107,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,13 +1606,14 @@
   <sheetPr/>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.8796296296296" customWidth="1"/>
+    <col min="6" max="6" width="15.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1892,8 +1893,8 @@
   <sheetPr/>
   <dimension ref="A2:E195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3565,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="s">
         <v>156</v>
@@ -3607,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" t="s">
         <v>159</v>
@@ -3618,10 +3619,10 @@
         <v>7</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140" t="s">
         <v>160</v>
@@ -3632,10 +3633,10 @@
         <v>8</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
         <v>161</v>
@@ -3646,10 +3647,10 @@
         <v>9</v>
       </c>
       <c r="C142">
+        <v>4</v>
+      </c>
+      <c r="D142">
         <v>3</v>
-      </c>
-      <c r="D142">
-        <v>2</v>
       </c>
       <c r="E142" t="s">
         <v>162</v>
@@ -3660,10 +3661,10 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E143" t="s">
         <v>163</v>
